--- a/LubanConfig/Datas/Item道具表.xlsx
+++ b/LubanConfig/Datas/Item道具表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -59,16 +59,13 @@
     <t>string</t>
   </si>
   <si>
-    <t>100001</t>
+    <t>1</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>转盘白银金币1</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>金币</t>
   </si>
   <si>
     <t>Loading……</t>
@@ -77,54 +74,6 @@
     <t>加载中……</t>
   </si>
   <si>
-    <t>100002</t>
-  </si>
-  <si>
-    <t>转盘白银金币2</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>转盘白银金币3</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>转盘白银金币4和黄金1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>100005</t>
-  </si>
-  <si>
-    <t>转盘白银金币5和黄金2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>100006</t>
-  </si>
-  <si>
-    <t>转盘黄金金币3</t>
-  </si>
-  <si>
-    <t>100007</t>
-  </si>
-  <si>
-    <t>转盘黄金金币4</t>
-  </si>
-  <si>
     <t>200001</t>
   </si>
   <si>
@@ -162,6 +111,117 @@
   </si>
   <si>
     <t>VIP升级领奖显示专属客服</t>
+  </si>
+  <si>
+    <t>默认头像1</t>
+  </si>
+  <si>
+    <t>默认头像2</t>
+  </si>
+  <si>
+    <t>默认头像3</t>
+  </si>
+  <si>
+    <t>默认头像4</t>
+  </si>
+  <si>
+    <t>默认头像5</t>
+  </si>
+  <si>
+    <t>默认头像6</t>
+  </si>
+  <si>
+    <t>默认头像7</t>
+  </si>
+  <si>
+    <t>默认头像8</t>
+  </si>
+  <si>
+    <t>默认头像9</t>
+  </si>
+  <si>
+    <t>默认头像10</t>
+  </si>
+  <si>
+    <t>默认头像11</t>
+  </si>
+  <si>
+    <t>默认头像12</t>
+  </si>
+  <si>
+    <t>默认头像13</t>
+  </si>
+  <si>
+    <t>默认头像14</t>
+  </si>
+  <si>
+    <t>默认头像15</t>
+  </si>
+  <si>
+    <t>默认头像16</t>
+  </si>
+  <si>
+    <t>默认头像17</t>
+  </si>
+  <si>
+    <t>默认头像18</t>
+  </si>
+  <si>
+    <t>默认头像19</t>
+  </si>
+  <si>
+    <t>默认头像20</t>
+  </si>
+  <si>
+    <t>VIP头像1</t>
+  </si>
+  <si>
+    <t>VIP头像2</t>
+  </si>
+  <si>
+    <t>VIP头像3</t>
+  </si>
+  <si>
+    <t>VIP头像4</t>
+  </si>
+  <si>
+    <t>VIP头像5</t>
+  </si>
+  <si>
+    <t>VIP头像6</t>
+  </si>
+  <si>
+    <t>VIP头像7</t>
+  </si>
+  <si>
+    <t>默认头像框</t>
+  </si>
+  <si>
+    <t>开服赠送</t>
+  </si>
+  <si>
+    <t>代理头像框</t>
+  </si>
+  <si>
+    <t>VIP头像框1</t>
+  </si>
+  <si>
+    <t>VIP头像框2</t>
+  </si>
+  <si>
+    <t>VIP头像框3</t>
+  </si>
+  <si>
+    <t>VIP头像框4</t>
+  </si>
+  <si>
+    <t>VIP头像框5</t>
+  </si>
+  <si>
+    <t>VIP头像框6</t>
+  </si>
+  <si>
+    <t>VIP头像框7</t>
   </si>
   <si>
     <t>表头</t>
@@ -787,7 +847,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,13 +858,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1283,10 +1336,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1295,33 +1348,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1331,97 +1387,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1432,10 +1485,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1444,25 +1497,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1819,12 +1872,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1914,322 +1967,849 @@
         <v>16</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>300001</v>
+      </c>
+      <c r="B6" s="14">
+        <v>211049</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>300002</v>
+      </c>
+      <c r="B7" s="14">
+        <v>211050</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12" t="s">
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>300003</v>
+      </c>
+      <c r="B8" s="14">
+        <v>211051</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>400001</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>400002</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12" t="s">
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>400003</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="D11" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5">
-        <v>300001</v>
-      </c>
-      <c r="B12" s="14">
-        <v>211049</v>
+        <v>400004</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5">
-        <v>300002</v>
-      </c>
-      <c r="B13" s="14">
-        <v>211050</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>39</v>
+        <v>400005</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5">
-        <v>300003</v>
-      </c>
-      <c r="B14" s="14">
-        <v>211051</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>40</v>
+        <v>400006</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D14" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5">
-        <v>400001</v>
+        <v>400007</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5">
         <v>4</v>
       </c>
       <c r="E15" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5">
-        <v>400002</v>
+        <v>500001</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5">
-        <v>400003</v>
+        <v>600001</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D17" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5">
-        <v>400004</v>
+        <v>600002</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D18" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5">
-        <v>400005</v>
+        <v>600003</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D19" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5">
-        <v>400006</v>
+        <v>600004</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5">
         <v>4</v>
-      </c>
-      <c r="E20" s="5">
-        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5">
-        <v>400007</v>
+        <v>600005</v>
       </c>
       <c r="B21" s="5">
         <v>0</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D21" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5">
-        <v>500001</v>
+        <v>600006</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5">
+        <v>600007</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5">
+        <v>600008</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="5">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5">
+        <v>600009</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="5">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5">
+        <v>600010</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="5">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5">
+        <v>600011</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="5">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5">
+        <v>600012</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="5">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5">
+        <v>600013</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="5">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5">
+        <v>600014</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="5">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5">
+        <v>600015</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="5">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5">
+        <v>600016</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5">
+        <v>600017</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D33" s="5">
+        <v>6</v>
+      </c>
+      <c r="E33" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5">
+        <v>600018</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="5">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5">
+        <v>600019</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="5">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5">
+        <v>600020</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="5">
+        <v>6</v>
+      </c>
+      <c r="E36" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5">
+        <v>600021</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="5">
+        <v>6</v>
+      </c>
+      <c r="E37" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5">
+        <v>600022</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="5">
+        <v>6</v>
+      </c>
+      <c r="E38" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5">
+        <v>600023</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="5">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5">
+        <v>600024</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="5">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5">
+        <v>600025</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="5">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5">
+        <v>600026</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="5">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5">
+        <v>600027</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="5">
+        <v>6</v>
+      </c>
+      <c r="E43" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5">
+        <v>700001</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="5">
+        <v>7</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5">
+        <v>700002</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="5">
+        <v>7</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5">
+        <v>700003</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="5">
+        <v>7</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5">
+        <v>700004</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="5">
+        <v>7</v>
+      </c>
+      <c r="E47" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5">
+        <v>700005</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="5">
+        <v>7</v>
+      </c>
+      <c r="E48" s="5">
         <v>5</v>
       </c>
-      <c r="E22" s="5">
-        <v>1</v>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5">
+        <v>700006</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="5">
+        <v>7</v>
+      </c>
+      <c r="E49" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5">
+        <v>700007</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="5">
+        <v>7</v>
+      </c>
+      <c r="E50" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5">
+        <v>700008</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="5">
+        <v>7</v>
+      </c>
+      <c r="E51" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5">
+        <v>700009</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="5">
+        <v>7</v>
+      </c>
+      <c r="E52" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5">
+        <v>700010</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="5">
+        <v>7</v>
+      </c>
+      <c r="E53" s="5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2256,60 +2836,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -2317,7 +2897,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2325,31 +2905,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2357,56 +2937,56 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
